--- a/cut/bak/accelerometer_readings.xlsx
+++ b/cut/bak/accelerometer_readings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\basill\research\steps\cut\bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F52402-8185-4F3E-B079-5C3836A7F4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810502D8-4F51-4AC8-ACA4-B8F4D6E061F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6EAB7BCE-1087-4889-A55B-CDF9620FB9B8}"/>
+    <workbookView xWindow="0" yWindow="3705" windowWidth="21600" windowHeight="11505" xr2:uid="{6EAB7BCE-1087-4889-A55B-CDF9620FB9B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Sensor</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Max Accelerometer (Gravities)</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +92,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,13 +135,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,19 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84C4976-6CDF-4B83-96A0-DE801FE648F6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -472,7 +504,7 @@
         <v>1.5609999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -486,7 +518,7 @@
         <v>1.2829999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -498,6 +530,176 @@
       </c>
       <c r="D4" s="2">
         <v>1.546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-1.1859999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.1180000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-1.4379999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5609999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-1.121</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-1.01</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-1.1659999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.2829999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-1.077</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-1.016</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1.546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-1.093</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.94799999999999995</v>
       </c>
     </row>
   </sheetData>
